--- a/数据整理/stocks/A股/上证主板/600160-巨化股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600160-巨化股份.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,37 +22,55 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>161123</t>
+  </si>
+  <si>
     <t>510170</t>
   </si>
   <si>
-    <t>161123</t>
+    <t>易方达并购重组指数（LOF）</t>
   </si>
   <si>
     <t>国联安上证大宗商品股票ETF</t>
   </si>
   <si>
-    <t>易方达并购重组指数（LOF）</t>
+    <t>5.21</t>
+  </si>
+  <si>
+    <t>1.77</t>
+  </si>
+  <si>
+    <t>94.39</t>
   </si>
   <si>
     <t>96.15</t>
   </si>
   <si>
-    <t>94.39</t>
+    <t>3.23</t>
   </si>
   <si>
     <t>2.25</t>
   </si>
   <si>
-    <t>3.23</t>
+    <t>0.1683</t>
+  </si>
+  <si>
+    <t>0.0398</t>
   </si>
 </sst>
 </file>
@@ -410,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,45 +450,63 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600160-巨化股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600160-巨化股份.xlsx
@@ -1,108 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>161123</t>
-  </si>
-  <si>
-    <t>510170</t>
-  </si>
-  <si>
-    <t>易方达并购重组指数（LOF）</t>
-  </si>
-  <si>
-    <t>国联安上证大宗商品股票ETF</t>
-  </si>
-  <si>
-    <t>5.21</t>
-  </si>
-  <si>
-    <t>1.77</t>
-  </si>
-  <si>
-    <t>94.39</t>
-  </si>
-  <si>
-    <t>96.15</t>
-  </si>
-  <si>
-    <t>3.23</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>0.1683</t>
-  </si>
-  <si>
-    <t>0.0398</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,89 +446,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600160-巨化股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600160-巨化股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,362 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3258</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001796</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>58.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002158</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>58.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600160-巨化股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600160-巨化股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1028,4 +1029,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600160-巨化股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600160-巨化股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1037,7 +1038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1048,17 +1049,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1068,14 +1089,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.65</v>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2600</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1084,14 +1127,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.12</v>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2939</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1100,13 +1165,211 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600160-巨化股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600160-巨化股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1284,7 +1285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1295,17 +1296,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1315,14 +1336,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.62</v>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5946</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1331,14 +1374,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.65</v>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3865</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1347,14 +1412,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.12</v>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2872</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1363,13 +1450,987 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600160-巨化股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600160-巨化股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2329,7 +2330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2340,17 +2341,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2360,14 +2381,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.64</v>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3036</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2376,14 +2419,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.62</v>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2392,14 +2457,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.65</v>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2408,14 +2495,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.12</v>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2424,13 +2533,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600160-巨化股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600160-巨化股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>0.57</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>2.64</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>1.62</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -583,6 +600,1270 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5316</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013516</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3775</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3773</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5247</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3630</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001490</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016854</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015453</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015454</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015123</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015225</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015226</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015124</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票D</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013515</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>71.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015191</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合D</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015190</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1094,7 +2375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2138,7 +3419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2384,7 +3665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2742,7 +4023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2836,7 +4117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600160-巨化股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600160-巨化股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>6.14</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>0.57</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>2.64</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>1.62</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.12</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -600,6 +617,2946 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7473</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013516</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7473</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5152</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4233</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2432</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015124</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票D</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001490</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2236</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2191</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015191</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合D</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014806</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国金量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015453</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014659</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金元顺安行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>61.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>560100</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014805</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国金量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015123</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015454</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159620</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏中证智选500成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014660</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>金元顺安行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>61.59</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015225</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>015226</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015190</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>016854</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013515</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>71.25</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-0.0003</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1863,7 +4820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2375,7 +5332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3419,7 +6376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3665,7 +6622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4023,7 +6980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4117,7 +7074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
